--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -150,9 +150,11 @@
         <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="G2"/>
+        <v>39.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -171,9 +173,11 @@
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="G3"/>
+        <v>24.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -217,7 +221,9 @@
       <c r="F5" t="n">
         <v>4.0</v>
       </c>
-      <c r="G5"/>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -238,7 +244,9 @@
       <c r="F6" t="n">
         <v>5.0</v>
       </c>
-      <c r="G6"/>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -259,7 +267,9 @@
       <c r="F7" t="n">
         <v>1.0</v>
       </c>
-      <c r="G7"/>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -38,22 +38,22 @@
     <t>3</t>
   </si>
   <si>
-    <t>EST</t>
-  </si>
-  <si>
     <t>INF</t>
   </si>
   <si>
+    <t>LIM</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
     <t>Abruzzo</t>
   </si>
   <si>
-    <t>Lazio</t>
+    <t>Rieti</t>
   </si>
   <si>
     <t>L'aquila</t>
-  </si>
-  <si>
-    <t>Rieti</t>
   </si>
   <si>
     <t>Cinghiale</t>
@@ -150,10 +150,10 @@
         <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>39.0</v>
+        <v>2.0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -161,7 +161,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -173,7 +173,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>24.0</v>
+        <v>39.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -187,19 +187,19 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>2.0</v>
+        <v>24.0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -219,7 +219,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -230,7 +230,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -242,7 +242,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -256,16 +256,16 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -196,7 +196,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -173,7 +173,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -196,7 +196,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -242,7 +242,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -196,7 +196,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -173,7 +173,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -219,7 +219,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -173,7 +173,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -196,7 +196,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -242,7 +242,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -196,7 +196,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -53,7 +53,7 @@
     <t>Rieti</t>
   </si>
   <si>
-    <t>L'aquila</t>
+    <t>L'Aquila</t>
   </si>
   <si>
     <t>Cinghiale</t>
@@ -196,7 +196,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -173,7 +173,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -196,7 +196,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -173,7 +173,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -196,7 +196,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -219,7 +219,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -196,7 +196,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -196,7 +196,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -173,7 +173,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -196,7 +196,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -219,7 +219,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -196,7 +196,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -150,7 +150,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G2" t="n">
         <v>1.0</v>
@@ -196,7 +196,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -219,7 +219,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -173,7 +173,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>49.0</v>
+        <v>51.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -173,7 +173,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -196,7 +196,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -173,7 +173,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>54.0</v>
+        <v>57.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -196,7 +196,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -196,7 +196,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -196,7 +196,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -173,7 +173,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>57.0</v>
+        <v>59.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -196,7 +196,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -196,7 +196,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>47.0</v>
+        <v>51.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -173,7 +173,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -196,7 +196,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -173,7 +173,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -150,7 +150,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G2" t="n">
         <v>1.0</v>
@@ -196,7 +196,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -150,7 +150,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G2" t="n">
         <v>1.0</v>
@@ -173,7 +173,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>61.0</v>
+        <v>63.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -196,7 +196,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -173,7 +173,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -196,7 +196,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -35,7 +35,7 @@
     <t>Positivo</t>
   </si>
   <si>
-    <t>3</t>
+    <t>Ri</t>
   </si>
   <si>
     <t>INF</t>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -196,7 +196,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -196,7 +196,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -32,10 +32,10 @@
     <t>Negativo</t>
   </si>
   <si>
-    <t>Positivo</t>
+    <t>Non idoneo</t>
   </si>
   <si>
-    <t>Non idoneo</t>
+    <t>Positivo</t>
   </si>
 </sst>
 </file>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
   <si>
     <t>Area</t>
   </si>
@@ -29,13 +29,34 @@
     <t>Specie</t>
   </si>
   <si>
+    <t>Positivo</t>
+  </si>
+  <si>
     <t>Negativo</t>
   </si>
   <si>
-    <t>Non idoneo</t>
-  </si>
-  <si>
-    <t>Positivo</t>
+    <t>Cl</t>
+  </si>
+  <si>
+    <t>INF</t>
+  </si>
+  <si>
+    <t>LIM</t>
+  </si>
+  <si>
+    <t>Calabria</t>
+  </si>
+  <si>
+    <t>Reggio calabria</t>
+  </si>
+  <si>
+    <t>Reggio di calabria</t>
+  </si>
+  <si>
+    <t>Cinghiale</t>
+  </si>
+  <si>
+    <t>Suino</t>
   </si>
 </sst>
 </file>
@@ -108,19 +129,144 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>18.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Area</t>
   </si>
@@ -29,12 +29,12 @@
     <t>Specie</t>
   </si>
   <si>
+    <t>Negativo</t>
+  </si>
+  <si>
     <t>Positivo</t>
   </si>
   <si>
-    <t>Negativo</t>
-  </si>
-  <si>
     <t>Cl</t>
   </si>
   <si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Reggio calabria</t>
-  </si>
-  <si>
-    <t>Reggio di calabria</t>
   </si>
   <si>
     <t>Cinghiale</t>
@@ -144,13 +141,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G2" t="n">
         <v>5.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -158,22 +155,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>13.0</v>
       </c>
     </row>
     <row r="4">
@@ -181,22 +178,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14.0</v>
       </c>
     </row>
     <row r="5">
@@ -204,68 +201,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="n">
         <v>62.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>18.0</v>
       </c>
     </row>
   </sheetData>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -216,7 +216,7 @@
         <v>18.0</v>
       </c>
       <c r="G5" t="n">
-        <v>62.0</v>
+        <v>65.0</v>
       </c>
     </row>
   </sheetData>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -147,7 +147,7 @@
         <v>13.0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="21">
   <si>
     <t>Area</t>
   </si>
@@ -35,6 +35,9 @@
     <t>Positivo</t>
   </si>
   <si>
+    <t>Ca</t>
+  </si>
+  <si>
     <t>Cl</t>
   </si>
   <si>
@@ -44,7 +47,25 @@
     <t>LIM</t>
   </si>
   <si>
+    <t>Basilicata</t>
+  </si>
+  <si>
+    <t>Campania</t>
+  </si>
+  <si>
     <t>Calabria</t>
+  </si>
+  <si>
+    <t>Potenza</t>
+  </si>
+  <si>
+    <t>Salerno</t>
+  </si>
+  <si>
+    <t>Matera</t>
+  </si>
+  <si>
+    <t>Avellino</t>
   </si>
   <si>
     <t>Reggio calabria</t>
@@ -132,22 +153,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>13.0</v>
+        <v>20.0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -158,19 +179,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" t="n">
-        <v>14.0</v>
+        <v>33.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="4">
@@ -178,16 +199,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F4" t="n">
         <v>1.0</v>
@@ -201,21 +222,228 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="n">
+        <v>334.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="n">
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="n">
         <v>18.0</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G14" t="n">
         <v>65.0</v>
       </c>
     </row>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -372,7 +372,7 @@
         <v>19</v>
       </c>
       <c r="F11" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="G11" t="n">
         <v>9.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="21">
   <si>
     <t>Area</t>
   </si>
@@ -188,7 +188,7 @@
         <v>19</v>
       </c>
       <c r="F3" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="G3" t="n">
         <v>16.0</v>
@@ -280,7 +280,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>107.0</v>
+        <v>113.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -314,19 +314,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>201.0</v>
+        <v>4.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -340,16 +340,16 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>21.0</v>
+        <v>201.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -357,25 +357,25 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" t="n">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="G11" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
@@ -383,7 +383,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -398,7 +398,7 @@
         <v>15.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="13">
@@ -406,7 +406,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -415,10 +415,10 @@
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -429,7 +429,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -441,9 +441,32 @@
         <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>18.0</v>
+        <v>4.0</v>
       </c>
       <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G15" t="n">
         <v>65.0</v>
       </c>
     </row>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -188,7 +188,7 @@
         <v>19</v>
       </c>
       <c r="F3" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="G3" t="n">
         <v>16.0</v>
@@ -280,7 +280,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>113.0</v>
+        <v>123.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -326,7 +326,7 @@
         <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -395,7 +395,7 @@
         <v>19</v>
       </c>
       <c r="F12" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="G12" t="n">
         <v>9.0</v>
@@ -441,7 +441,7 @@
         <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -464,7 +464,7 @@
         <v>20</v>
       </c>
       <c r="F15" t="n">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="G15" t="n">
         <v>65.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -191,7 +191,7 @@
         <v>36.0</v>
       </c>
       <c r="G3" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="4">

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -191,7 +191,7 @@
         <v>36.0</v>
       </c>
       <c r="G3" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="4">

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -191,7 +191,7 @@
         <v>36.0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="4">

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -165,7 +165,7 @@
         <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -191,7 +191,7 @@
         <v>36.0</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="4">
@@ -234,7 +234,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="n">
-        <v>334.0</v>
+        <v>343.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -349,7 +349,7 @@
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>201.0</v>
+        <v>219.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -421,7 +421,7 @@
         <v>15.0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -464,7 +464,7 @@
         <v>20</v>
       </c>
       <c r="F15" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="G15" t="n">
         <v>65.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -191,7 +191,7 @@
         <v>36.0</v>
       </c>
       <c r="G3" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         <v>24.0</v>
       </c>
       <c r="G15" t="n">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
     </row>
   </sheetData>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -188,7 +188,7 @@
         <v>19</v>
       </c>
       <c r="F3" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="G3" t="n">
         <v>24.0</v>
@@ -280,7 +280,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>123.0</v>
+        <v>128.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -326,7 +326,7 @@
         <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -398,7 +398,7 @@
         <v>17.0</v>
       </c>
       <c r="G12" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="13">
@@ -467,7 +467,7 @@
         <v>24.0</v>
       </c>
       <c r="G15" t="n">
-        <v>69.0</v>
+        <v>76.0</v>
       </c>
     </row>
   </sheetData>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -188,7 +188,7 @@
         <v>19</v>
       </c>
       <c r="F3" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="G3" t="n">
         <v>24.0</v>
@@ -280,7 +280,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>128.0</v>
+        <v>135.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -191,7 +191,7 @@
         <v>39.0</v>
       </c>
       <c r="G3" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="4">
@@ -398,7 +398,7 @@
         <v>17.0</v>
       </c>
       <c r="G12" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="13">

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -280,7 +280,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>135.0</v>
+        <v>155.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -326,7 +326,7 @@
         <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -191,7 +191,7 @@
         <v>39.0</v>
       </c>
       <c r="G3" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="4">
@@ -444,7 +444,7 @@
         <v>5.0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -188,7 +188,7 @@
         <v>19</v>
       </c>
       <c r="F3" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="G3" t="n">
         <v>27.0</v>
@@ -280,7 +280,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>155.0</v>
+        <v>163.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -326,7 +326,7 @@
         <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -395,7 +395,7 @@
         <v>19</v>
       </c>
       <c r="F12" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="G12" t="n">
         <v>12.0</v>
@@ -467,7 +467,7 @@
         <v>24.0</v>
       </c>
       <c r="G15" t="n">
-        <v>76.0</v>
+        <v>400.0</v>
       </c>
     </row>
   </sheetData>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -165,7 +165,7 @@
         <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -234,7 +234,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="n">
-        <v>343.0</v>
+        <v>371.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -303,7 +303,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
@@ -349,7 +349,7 @@
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>219.0</v>
+        <v>243.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -280,7 +280,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>163.0</v>
+        <v>177.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="18">
   <si>
     <t>Area</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Ca</t>
   </si>
   <si>
-    <t>Cl</t>
-  </si>
-  <si>
     <t>INF</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
     <t>Campania</t>
   </si>
   <si>
-    <t>Calabria</t>
-  </si>
-  <si>
     <t>Potenza</t>
   </si>
   <si>
@@ -66,9 +60,6 @@
   </si>
   <si>
     <t>Avellino</t>
-  </si>
-  <si>
-    <t>Reggio calabria</t>
   </si>
   <si>
     <t>Cinghiale</t>
@@ -153,16 +144,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
         <v>24.0</v>
@@ -176,16 +167,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
         <v>40.0</v>
@@ -199,16 +190,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F4" t="n">
         <v>1.0</v>
@@ -222,16 +213,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
         <v>371.0</v>
@@ -245,16 +236,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F6" t="n">
         <v>1.0</v>
@@ -268,16 +259,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" t="n">
         <v>177.0</v>
@@ -291,16 +282,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F8" t="n">
         <v>15.0</v>
@@ -314,16 +305,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F9" t="n">
         <v>16.0</v>
@@ -337,16 +328,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F10" t="n">
         <v>243.0</v>
@@ -360,114 +351,22 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F11" t="n">
         <v>21.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>400.0</v>
       </c>
     </row>
   </sheetData>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -179,7 +179,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="G3" t="n">
         <v>27.0</v>
@@ -271,7 +271,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>177.0</v>
+        <v>185.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -317,7 +317,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -363,7 +363,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -271,7 +271,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>185.0</v>
+        <v>193.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -317,7 +317,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>21.0</v>
+        <v>33.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -363,7 +363,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -179,7 +179,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="G3" t="n">
         <v>27.0</v>
@@ -271,7 +271,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>193.0</v>
+        <v>197.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -317,7 +317,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>33.0</v>
+        <v>45.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -271,7 +271,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>197.0</v>
+        <v>206.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -317,7 +317,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -271,7 +271,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>206.0</v>
+        <v>211.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -317,7 +317,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>47.0</v>
+        <v>49.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -179,7 +179,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="G3" t="n">
         <v>27.0</v>
@@ -271,7 +271,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>211.0</v>
+        <v>216.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -317,7 +317,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -225,7 +225,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>371.0</v>
+        <v>393.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -294,7 +294,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
@@ -340,7 +340,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>243.0</v>
+        <v>263.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -179,7 +179,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="G3" t="n">
         <v>27.0</v>
@@ -271,7 +271,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>216.0</v>
+        <v>224.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -317,7 +317,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -271,7 +271,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>224.0</v>
+        <v>226.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -317,7 +317,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -179,7 +179,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>47.0</v>
+        <v>51.0</v>
       </c>
       <c r="G3" t="n">
         <v>27.0</v>
@@ -271,7 +271,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>226.0</v>
+        <v>235.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -317,7 +317,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>54.0</v>
+        <v>57.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -179,7 +179,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="G3" t="n">
         <v>27.0</v>
@@ -271,7 +271,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>235.0</v>
+        <v>246.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -317,7 +317,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>57.0</v>
+        <v>59.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -363,7 +363,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -179,7 +179,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="G3" t="n">
         <v>27.0</v>
@@ -271,7 +271,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>246.0</v>
+        <v>253.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -317,7 +317,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>59.0</v>
+        <v>62.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -182,7 +182,7 @@
         <v>54.0</v>
       </c>
       <c r="G3" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="4">

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -156,7 +156,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -225,7 +225,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>393.0</v>
+        <v>422.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -294,7 +294,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
@@ -340,7 +340,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>263.0</v>
+        <v>283.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -271,7 +271,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>253.0</v>
+        <v>272.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -317,7 +317,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -363,7 +363,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -225,7 +225,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>422.0</v>
+        <v>423.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -179,7 +179,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>54.0</v>
+        <v>58.0</v>
       </c>
       <c r="G3" t="n">
         <v>26.0</v>
@@ -271,7 +271,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>272.0</v>
+        <v>282.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -363,7 +363,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="28">
   <si>
     <t>Area</t>
   </si>
@@ -32,13 +32,70 @@
     <t>Negativo</t>
   </si>
   <si>
+    <t>Non idoneo</t>
+  </si>
+  <si>
     <t>Positivo</t>
   </si>
   <si>
-    <t>Non applicabile</t>
-  </si>
-  <si>
-    <t>Non idoneo</t>
+    <t>Pl</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>INF</t>
+  </si>
+  <si>
+    <t>LIM</t>
+  </si>
+  <si>
+    <t>Emilia romagna</t>
+  </si>
+  <si>
+    <t>Liguria</t>
+  </si>
+  <si>
+    <t>Lombardia</t>
+  </si>
+  <si>
+    <t>Piemonte</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Piacenza</t>
+  </si>
+  <si>
+    <t>Genova</t>
+  </si>
+  <si>
+    <t>Savona</t>
+  </si>
+  <si>
+    <t>Pavia</t>
+  </si>
+  <si>
+    <t>Alessandria</t>
+  </si>
+  <si>
+    <t>Asti</t>
+  </si>
+  <si>
+    <t>Cuneo</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Cinghiale</t>
+  </si>
+  <si>
+    <t>Suino</t>
   </si>
 </sst>
 </file>
@@ -114,20 +171,1202 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="n">
+        <v>299.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2191.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>298.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="n">
+        <v>638.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>153.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1618.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3063.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>497.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>130.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" t="n">
+        <v>309.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1081.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>12780.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" t="n">
+        <v>442.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2164.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="29">
   <si>
     <t>Area</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Cuneo</t>
+  </si>
+  <si>
+    <t>Milano</t>
   </si>
   <si>
     <t>Torino</t>
@@ -186,7 +189,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -212,7 +215,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="n">
         <v>11.0</v>
@@ -238,7 +241,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="n">
         <v>299.0</v>
@@ -264,7 +267,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" t="n">
         <v>233.0</v>
@@ -290,7 +293,7 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" t="n">
         <v>160.0</v>
@@ -316,7 +319,7 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" t="n">
         <v>110.0</v>
@@ -342,7 +345,7 @@
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" t="n">
         <v>175.0</v>
@@ -368,7 +371,7 @@
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" t="n">
         <v>42.0</v>
@@ -394,7 +397,7 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" t="n">
         <v>11.0</v>
@@ -420,16 +423,16 @@
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11" t="n">
-        <v>2191.0</v>
+        <v>2199.0</v>
       </c>
       <c r="G11" t="n">
         <v>40.0</v>
       </c>
       <c r="H11" t="n">
-        <v>298.0</v>
+        <v>303.0</v>
       </c>
     </row>
     <row r="12">
@@ -446,10 +449,10 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" t="n">
-        <v>638.0</v>
+        <v>639.0</v>
       </c>
       <c r="G12" t="n">
         <v>6.0</v>
@@ -472,7 +475,7 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F13" t="n">
         <v>1618.0</v>
@@ -498,10 +501,10 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F14" t="n">
-        <v>3063.0</v>
+        <v>3068.0</v>
       </c>
       <c r="G14" t="n">
         <v>4.0</v>
@@ -524,7 +527,7 @@
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F15" t="n">
         <v>37.0</v>
@@ -550,7 +553,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F16" t="n">
         <v>1.0</v>
@@ -573,19 +576,19 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F17" t="n">
-        <v>28.0</v>
+        <v>5.0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
@@ -593,25 +596,25 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F18" t="n">
-        <v>63.0</v>
+        <v>28.0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="19">
@@ -625,13 +628,13 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F19" t="n">
-        <v>77.0</v>
+        <v>63.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -648,16 +651,16 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F20" t="n">
-        <v>11.0</v>
+        <v>77.0</v>
       </c>
       <c r="G20" t="n">
         <v>0.0</v>
@@ -677,13 +680,13 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F21" t="n">
-        <v>85.0</v>
+        <v>11.0</v>
       </c>
       <c r="G21" t="n">
         <v>0.0</v>
@@ -700,16 +703,16 @@
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F22" t="n">
-        <v>139.0</v>
+        <v>85.0</v>
       </c>
       <c r="G22" t="n">
         <v>0.0</v>
@@ -726,16 +729,16 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F23" t="n">
-        <v>56.0</v>
+        <v>19.0</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
@@ -752,16 +755,16 @@
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F24" t="n">
-        <v>133.0</v>
+        <v>139.0</v>
       </c>
       <c r="G24" t="n">
         <v>0.0</v>
@@ -781,16 +784,16 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F25" t="n">
-        <v>296.0</v>
+        <v>56.0</v>
       </c>
       <c r="G25" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="H25" t="n">
         <v>0.0</v>
@@ -807,13 +810,13 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F26" t="n">
-        <v>1.0</v>
+        <v>133.0</v>
       </c>
       <c r="G26" t="n">
         <v>0.0</v>
@@ -827,22 +830,22 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
         <v>27</v>
       </c>
       <c r="F27" t="n">
-        <v>10.0</v>
+        <v>296.0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H27" t="n">
         <v>0.0</v>
@@ -853,13 +856,13 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
         <v>27</v>
@@ -882,16 +885,16 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F29" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="G29" t="n">
         <v>0.0</v>
@@ -908,22 +911,22 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F30" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="G30" t="n">
         <v>0.0</v>
       </c>
       <c r="H30" t="n">
-        <v>130.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
@@ -934,16 +937,16 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F31" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="G31" t="n">
         <v>0.0</v>
@@ -960,22 +963,22 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F32" t="n">
-        <v>74.0</v>
+        <v>3.0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="33">
@@ -983,19 +986,19 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F33" t="n">
-        <v>2.0</v>
+        <v>17.0</v>
       </c>
       <c r="G33" t="n">
         <v>0.0</v>
@@ -1009,22 +1012,22 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F34" t="n">
-        <v>18.0</v>
+        <v>75.0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H34" t="n">
         <v>0.0</v>
@@ -1038,16 +1041,16 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F35" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="G35" t="n">
         <v>0.0</v>
@@ -1064,16 +1067,16 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F36" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="G36" t="n">
         <v>0.0</v>
@@ -1090,16 +1093,16 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F37" t="n">
-        <v>37.0</v>
+        <v>13.0</v>
       </c>
       <c r="G37" t="n">
         <v>0.0</v>
@@ -1116,16 +1119,16 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F38" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G38" t="n">
         <v>0.0</v>
@@ -1139,19 +1142,19 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F39" t="n">
-        <v>74.0</v>
+        <v>37.0</v>
       </c>
       <c r="G39" t="n">
         <v>0.0</v>
@@ -1165,19 +1168,19 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0</v>
+        <v>1.0</v>
       </c>
       <c r="G40" t="n">
         <v>0.0</v>
@@ -1191,19 +1194,19 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F41" t="n">
-        <v>309.0</v>
+        <v>16.0</v>
       </c>
       <c r="G41" t="n">
         <v>0.0</v>
@@ -1217,19 +1220,19 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F42" t="n">
-        <v>8.0</v>
+        <v>74.0</v>
       </c>
       <c r="G42" t="n">
         <v>0.0</v>
@@ -1246,22 +1249,22 @@
         <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F43" t="n">
-        <v>1081.0</v>
+        <v>183.0</v>
       </c>
       <c r="G43" t="n">
         <v>0.0</v>
       </c>
       <c r="H43" t="n">
-        <v>12780.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
@@ -1272,19 +1275,19 @@
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F44" t="n">
-        <v>442.0</v>
+        <v>309.0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H44" t="n">
         <v>0.0</v>
@@ -1298,16 +1301,16 @@
         <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F45" t="n">
-        <v>99.0</v>
+        <v>8.0</v>
       </c>
       <c r="G45" t="n">
         <v>0.0</v>
@@ -1324,19 +1327,19 @@
         <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F46" t="n">
-        <v>2164.0</v>
+        <v>90.0</v>
       </c>
       <c r="G46" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n">
         <v>0.0</v>
@@ -1350,21 +1353,125 @@
         <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F47" t="n">
+        <v>1081.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>12780.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" t="n">
+        <v>442.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2165.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" t="n">
         <v>3.0</v>
       </c>
-      <c r="G47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n">
+      <c r="G51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H51" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -179,7 +179,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="G3" t="n">
         <v>1.0</v>
@@ -205,7 +205,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -257,7 +257,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>74.0</v>
+        <v>76.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -283,7 +283,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>90.0</v>
+        <v>98.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -179,13 +179,13 @@
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>29.0</v>
+        <v>34.0</v>
       </c>
       <c r="G3" t="n">
         <v>1.0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="4">
@@ -257,7 +257,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>76.0</v>
+        <v>80.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -283,7 +283,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>98.0</v>
+        <v>99.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -257,7 +257,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>80.0</v>
+        <v>84.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -185,7 +185,7 @@
         <v>1.0</v>
       </c>
       <c r="H3" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="4">

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
   <si>
     <t>Area</t>
   </si>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>Negativo</t>
-  </si>
-  <si>
-    <t>Non idoneo</t>
   </si>
   <si>
     <t>Positivo</t>
@@ -132,25 +129,22 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
         <v>5.0</v>
@@ -158,51 +152,45 @@
       <c r="G2" t="n">
         <v>0.0</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" t="n">
-        <v>34.0</v>
+        <v>18.0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
         <v>21.0</v>
@@ -210,25 +198,22 @@
       <c r="G4" t="n">
         <v>0.0</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n">
         <v>16.0</v>
@@ -236,59 +221,50 @@
       <c r="G5" t="n">
         <v>0.0</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>84.0</v>
+        <v>30.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H6" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" t="n">
         <v>99.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H7" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -170,7 +170,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="G3" t="n">
         <v>5.0</v>
@@ -239,7 +239,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -262,7 +262,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>99.0</v>
+        <v>105.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -262,7 +262,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>105.0</v>
+        <v>107.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -216,7 +216,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -239,7 +239,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>32.0</v>
+        <v>37.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -262,7 +262,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>107.0</v>
+        <v>109.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -262,7 +262,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>109.0</v>
+        <v>111.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -193,7 +193,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -216,7 +216,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -239,7 +239,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -262,7 +262,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>111.0</v>
+        <v>114.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -147,7 +147,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -170,7 +170,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="G3" t="n">
         <v>5.0</v>
@@ -216,7 +216,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -239,7 +239,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>39.0</v>
+        <v>51.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -173,7 +173,7 @@
         <v>21.0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -147,7 +147,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -170,7 +170,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0</v>
+        <v>40.0</v>
       </c>
       <c r="G3" t="n">
         <v>6.0</v>
@@ -239,7 +239,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -239,7 +239,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>55.0</v>
+        <v>53.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>

--- a/Download/CasiControlli_ZP.xlsx
+++ b/Download/CasiControlli_ZP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Area</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Non idoneo</t>
-  </si>
-  <si>
-    <t>Non applicabile</t>
   </si>
 </sst>
 </file>
@@ -114,9 +111,6 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2"/>
@@ -127,7 +121,6 @@
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
-      <c r="I2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
